--- a/second_sem/data/geo.xlsx
+++ b/second_sem/data/geo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Код района</t>
   </si>
@@ -166,18 +166,37 @@
   </si>
   <si>
     <t>ЗАТО Михайловский</t>
+  </si>
+  <si>
+    <t>Численность населения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,9 +220,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,20 +505,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +529,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -518,8 +543,11 @@
       <c r="C2">
         <v>265</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>14765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>202</v>
       </c>
@@ -529,8 +557,11 @@
       <c r="C3">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>20119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>203</v>
       </c>
@@ -540,8 +571,11 @@
       <c r="C4">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>35219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>204</v>
       </c>
@@ -551,8 +585,11 @@
       <c r="C5">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>26476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>205</v>
       </c>
@@ -562,8 +599,11 @@
       <c r="C6">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>203762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>206</v>
       </c>
@@ -573,8 +613,11 @@
       <c r="C7">
         <v>211</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>102351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>207</v>
       </c>
@@ -584,8 +627,11 @@
       <c r="C8">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>208</v>
       </c>
@@ -595,8 +641,11 @@
       <c r="C9">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>83264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>210</v>
       </c>
@@ -606,8 +655,11 @@
       <c r="C10">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>16622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>212</v>
       </c>
@@ -617,8 +669,11 @@
       <c r="C11">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>16918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>213</v>
       </c>
@@ -628,8 +683,11 @@
       <c r="C12">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>32817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>214</v>
       </c>
@@ -639,8 +697,11 @@
       <c r="C13">
         <v>272</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>12814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>216</v>
       </c>
@@ -650,8 +711,11 @@
       <c r="C14">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>41501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>219</v>
       </c>
@@ -661,8 +725,11 @@
       <c r="C15">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>17795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>220</v>
       </c>
@@ -672,8 +739,11 @@
       <c r="C16">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>58938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>221</v>
       </c>
@@ -683,8 +753,11 @@
       <c r="C17">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>15241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>223</v>
       </c>
@@ -694,8 +767,11 @@
       <c r="C18">
         <v>294</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>15132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>224</v>
       </c>
@@ -705,8 +781,11 @@
       <c r="C19">
         <v>348</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>11558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>225</v>
       </c>
@@ -716,8 +795,11 @@
       <c r="C20">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>37309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>227</v>
       </c>
@@ -727,8 +809,11 @@
       <c r="C21">
         <v>233</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>55826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>228</v>
       </c>
@@ -738,8 +823,11 @@
       <c r="C22">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>16888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>230</v>
       </c>
@@ -749,8 +837,11 @@
       <c r="C23">
         <v>208</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>51461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>232</v>
       </c>
@@ -760,8 +851,11 @@
       <c r="C24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>940395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>233</v>
       </c>
@@ -771,8 +865,11 @@
       <c r="C25">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>24775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>234</v>
       </c>
@@ -782,8 +879,11 @@
       <c r="C26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>28258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>235</v>
       </c>
@@ -793,8 +893,11 @@
       <c r="C27">
         <v>264</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>9924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>236</v>
       </c>
@@ -804,8 +907,11 @@
       <c r="C28">
         <v>122</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>17406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>238</v>
       </c>
@@ -815,8 +921,11 @@
       <c r="C29">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>309207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>240</v>
       </c>
@@ -826,8 +935,11 @@
       <c r="C30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>12702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>241</v>
       </c>
@@ -837,8 +949,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>891898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>242</v>
       </c>
@@ -848,8 +963,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>119412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>243</v>
       </c>
@@ -859,8 +977,11 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>106923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>244</v>
       </c>
@@ -870,8 +991,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>245</v>
       </c>
@@ -881,8 +1005,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>149952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>246</v>
       </c>
@@ -892,8 +1019,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>302303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>247</v>
       </c>
@@ -903,8 +1033,11 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>177231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>209</v>
       </c>
@@ -914,8 +1047,11 @@
       <c r="C38">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>11257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>215</v>
       </c>
@@ -925,8 +1061,11 @@
       <c r="C39">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>27973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>217</v>
       </c>
@@ -936,8 +1075,11 @@
       <c r="C40">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>31470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>218</v>
       </c>
@@ -947,8 +1089,11 @@
       <c r="C41">
         <v>227</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>9505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>222</v>
       </c>
@@ -958,8 +1103,11 @@
       <c r="C42">
         <v>213</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>27252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>226</v>
       </c>
@@ -969,8 +1117,11 @@
       <c r="C43">
         <v>170</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>14943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>229</v>
       </c>
@@ -980,8 +1131,11 @@
       <c r="C44">
         <v>253</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>231</v>
       </c>
@@ -991,8 +1145,11 @@
       <c r="C45">
         <v>193</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>16662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>237</v>
       </c>
@@ -1002,8 +1159,11 @@
       <c r="C46">
         <v>232</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>21245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>248</v>
       </c>
@@ -1013,8 +1173,12 @@
       <c r="C47">
         <v>225</v>
       </c>
+      <c r="D47">
+        <v>2439</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>